--- a/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/RewardInfo/T_RewardInfoTable.xlsx
+++ b/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/RewardInfo/T_RewardInfoTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -39,12 +39,27 @@
   <si>
     <t>Description</t>
   </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>샘플 자유 보상 정보</t>
+  </si>
+  <si>
+    <t>샘플 일일 보상 정보</t>
+  </si>
+  <si>
+    <t>샘플 이벤트 보상 정보</t>
+  </si>
+  <si>
+    <t>샘플 클리어 보상 정보</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -54,6 +69,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -69,12 +85,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -305,7 +324,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="14.43"/>
+    <col customWidth="1" min="1" max="7" width="14.43"/>
     <col customWidth="1" min="8" max="8" width="15.86"/>
   </cols>
   <sheetData>
@@ -335,7 +354,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.0" customHeight="1"/>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="3" ht="15.0" customHeight="1"/>
     <row r="4" ht="15.0" customHeight="1"/>
     <row r="5" ht="15.0" customHeight="1"/>
@@ -1349,8 +1393,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="15.86"/>
+    <col customWidth="1" min="1" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="15.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -1379,7 +1423,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.0" customHeight="1"/>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.0E7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="3" ht="15.0" customHeight="1"/>
     <row r="4" ht="15.0" customHeight="1"/>
     <row r="5" ht="15.0" customHeight="1"/>
@@ -2393,8 +2462,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.57"/>
+    <col customWidth="1" min="1" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.57"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -2423,7 +2492,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.0" customHeight="1"/>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.0E7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="3" ht="15.0" customHeight="1"/>
     <row r="4" ht="15.0" customHeight="1"/>
     <row r="5" ht="15.0" customHeight="1"/>
@@ -3437,8 +3531,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.57"/>
+    <col customWidth="1" min="1" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.57"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -3467,7 +3561,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.0" customHeight="1"/>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3.0E7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="3" ht="15.0" customHeight="1"/>
     <row r="4" ht="15.0" customHeight="1"/>
     <row r="5" ht="15.0" customHeight="1"/>
